--- a/src/parameters.xlsx
+++ b/src/parameters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="197">
   <si>
     <t xml:space="preserve">Модель/модуль/тип канала</t>
   </si>
@@ -336,13 +336,73 @@
     <t xml:space="preserve">Time1</t>
   </si>
   <si>
-    <t xml:space="preserve">смещение начала положительного центроидаX   X1</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">смещение начала </t>
+    </r>
+    <r>
+      <rPr>
+        <strike val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">положительного </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">центроидаX   X1</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Time_len</t>
   </si>
   <si>
-    <t xml:space="preserve">длительность положительного центроидаX   X2</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">длительность </t>
+    </r>
+    <r>
+      <rPr>
+        <strike val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">положительного</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> центроидаX   X2</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">W1</t>
@@ -475,6 +535,80 @@
   </si>
   <si>
     <t xml:space="preserve">входной импеданс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1..127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD – задержка CFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1..31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1 – множитель 1 CFD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">2 –</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">множитель </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 CFD</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">0..6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRR – номер делителя CFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0..2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">способ вычисления QX/RX центроидаX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1..X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">промежуточная безусловная длительность центроидаX</t>
   </si>
   <si>
     <t xml:space="preserve">F</t>
@@ -902,7 +1036,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -987,6 +1121,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <strike val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -999,6 +1141,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1093,7 +1246,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1174,14 +1327,22 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1238,7 +1399,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1433,12 +1594,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AMJ69"/>
+  <dimension ref="A2:AMJ81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="8" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="J54" activeCellId="0" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1580,7 +1741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1971,10 +2132,10 @@
       <c r="F23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="5"/>
+      <c r="G23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="7"/>
       <c r="I23" s="1" t="n">
         <v>12</v>
       </c>
@@ -2156,7 +2317,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>94</v>
       </c>
@@ -2186,7 +2347,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>96</v>
       </c>
@@ -2704,441 +2865,561 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+    <row r="49" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="G49" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49" s="3" t="s">
+      <c r="H49" s="5"/>
+      <c r="I49" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="J49" s="22" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G50" s="5"/>
+    <row r="50" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="H50" s="5"/>
-    </row>
-    <row r="51" s="24" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="22" t="s">
+      <c r="I50" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="J50" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="G51" s="5" t="s">
         <v>144</v>
       </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="1" t="n">
+        <v>40</v>
+      </c>
       <c r="J51" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="AMJ51" s="25"/>
-    </row>
-    <row r="52" s="29" customFormat="true" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="J52" s="28" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="G52" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AMJ52" s="25"/>
-    </row>
-    <row r="53" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="30" t="s">
+      <c r="H52" s="5"/>
+      <c r="I52" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="J52" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="J53" s="31" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="G53" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="54" s="34" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="32" t="s">
+      <c r="H53" s="5"/>
+      <c r="I53" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="J53" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="J54" s="33" t="s">
+    </row>
+    <row r="54" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="G54" s="5" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="17" t="s">
+      <c r="H54" s="5"/>
+      <c r="I54" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="J54" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="J55" s="35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="J56" s="37"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>156</v>
-      </c>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>158</v>
-      </c>
+      <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>159</v>
-      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>161</v>
-      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" s="26" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="J63" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="AMJ63" s="27"/>
+    </row>
+    <row r="64" s="31" customFormat="true" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="J64" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="AMJ64" s="27"/>
+    </row>
+    <row r="65" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="J65" s="33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" s="36" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="J66" s="35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J67" s="37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="J68" s="39"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H70" s="5"/>
+      <c r="I70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H71" s="5"/>
+      <c r="I71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="5"/>
+      <c r="I72" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="1" t="s">
+      <c r="D73" s="5"/>
+      <c r="E73" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G73" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H61" s="5"/>
-      <c r="I61" s="1" t="n">
+      <c r="H73" s="5"/>
+      <c r="I73" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J61" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="J73" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G74" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H62" s="5"/>
-      <c r="I62" s="1" t="n">
+      <c r="H74" s="5"/>
+      <c r="I74" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J62" s="38" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F63" s="1" t="s">
+      <c r="J74" s="40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G63" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H63" s="5"/>
-      <c r="I63" s="1" t="n">
+      <c r="G75" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H75" s="5"/>
+      <c r="I75" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J63" s="38" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="J75" s="40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G64" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H64" s="5"/>
-      <c r="I64" s="1" t="n">
+      <c r="G76" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H76" s="5"/>
+      <c r="I76" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J64" s="38" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F65" s="1" t="s">
+      <c r="J76" s="40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G65" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H65" s="5"/>
-      <c r="I65" s="1" t="n">
+      <c r="G77" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H77" s="5"/>
+      <c r="I77" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J65" s="38" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F66" s="1" t="s">
+      <c r="J77" s="40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G66" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H66" s="5"/>
-      <c r="I66" s="1" t="n">
+      <c r="G78" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H78" s="5"/>
+      <c r="I78" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J66" s="38" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="J78" s="40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G67" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H67" s="5"/>
-      <c r="I67" s="1" t="n">
+      <c r="G79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="5"/>
+      <c r="I79" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="J67" s="38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="5" t="s">
+      <c r="J79" s="40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="5"/>
-      <c r="I68" s="1" t="n">
+      <c r="H80" s="5"/>
+      <c r="I80" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="H69" s="5"/>
-      <c r="I69" s="1" t="n">
+      <c r="J80" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H81" s="5"/>
+      <c r="I81" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="J69" s="3" t="s">
-        <v>185</v>
+      <c r="J81" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="90">
+  <mergeCells count="96">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="G3:H3"/>
@@ -3208,27 +3489,33 @@
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
     <mergeCell ref="G50:H50"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="G52:H52"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="G61:H61"/>
     <mergeCell ref="G62:H62"/>
     <mergeCell ref="G63:H63"/>
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="G65:H65"/>
     <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
     <mergeCell ref="G69:H69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/src/parameters.xlsx
+++ b/src/parameters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="197">
   <si>
     <t xml:space="preserve">Модель/модуль/тип канала</t>
   </si>
@@ -554,6 +554,7 @@
         <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">F</t>
     </r>
@@ -571,6 +572,7 @@
         <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -588,6 +590,7 @@
         <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2 CFD</t>
     </r>
@@ -1143,15 +1146,23 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1182,12 +1193,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1246,7 +1251,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1323,6 +1328,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1336,13 +1345,17 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1399,7 +1412,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1596,10 +1609,10 @@
   </sheetPr>
   <dimension ref="A2:AMJ81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="8" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J54" activeCellId="0" sqref="J54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="8" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1741,7 +1754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2126,8 +2139,8 @@
         <v>63</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="1" t="s">
-        <v>63</v>
+      <c r="E23" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>63</v>
@@ -2156,10 +2169,10 @@
       <c r="D24" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="20" t="s">
         <v>81</v>
       </c>
       <c r="G24" s="15" t="s">
@@ -2214,10 +2227,10 @@
       <c r="D26" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="20" t="s">
         <v>81</v>
       </c>
       <c r="G26" s="15" t="s">
@@ -2272,10 +2285,10 @@
       <c r="D28" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="20" t="s">
         <v>81</v>
       </c>
       <c r="G28" s="15" t="s">
@@ -2317,7 +2330,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>94</v>
       </c>
@@ -2330,10 +2343,10 @@
       <c r="D30" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="20" t="s">
         <v>81</v>
       </c>
       <c r="G30" s="15" t="s">
@@ -2347,7 +2360,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>96</v>
       </c>
@@ -2388,10 +2401,10 @@
       <c r="D32" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="20" t="s">
         <v>81</v>
       </c>
       <c r="G32" s="15" t="s">
@@ -2560,10 +2573,10 @@
         <v>16</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="21" t="s">
         <v>114</v>
       </c>
       <c r="G38" s="15" t="s">
@@ -2644,10 +2657,10 @@
         <v>16</v>
       </c>
       <c r="D41" s="5"/>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="22" t="s">
         <v>114</v>
       </c>
       <c r="G41" s="15" t="s">
@@ -2865,9 +2878,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
+      <c r="E49" s="23" t="s">
+        <v>142</v>
+      </c>
       <c r="G49" s="5" t="s">
         <v>142</v>
       </c>
@@ -2875,13 +2891,16 @@
       <c r="I49" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="J49" s="22" t="s">
+      <c r="J49" s="24" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
+      <c r="E50" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G50" s="5" t="s">
         <v>144</v>
       </c>
@@ -2889,13 +2908,16 @@
       <c r="I50" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="J50" s="23" t="s">
+      <c r="J50" s="25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
+      <c r="E51" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G51" s="5" t="s">
         <v>144</v>
       </c>
@@ -2903,13 +2925,16 @@
       <c r="I51" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="J51" s="23" t="s">
+      <c r="J51" s="25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
+      <c r="E52" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G52" s="5" t="s">
         <v>147</v>
       </c>
@@ -2917,13 +2942,16 @@
       <c r="I52" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="J52" s="23" t="s">
+      <c r="J52" s="25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
+      <c r="E53" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="G53" s="5" t="s">
         <v>149</v>
       </c>
@@ -2931,13 +2959,16 @@
       <c r="I53" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="J53" s="23" t="s">
+      <c r="J53" s="25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
+      <c r="E54" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="G54" s="5" t="s">
         <v>151</v>
       </c>
@@ -2945,7 +2976,7 @@
       <c r="I54" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="J54" s="23" t="s">
+      <c r="J54" s="25" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3018,7 +3049,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" s="26" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" s="28" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -3027,42 +3058,42 @@
       <c r="F63" s="10"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
-      <c r="I63" s="24" t="s">
+      <c r="I63" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="J63" s="25" t="s">
+      <c r="J63" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AMJ63" s="27"/>
-    </row>
-    <row r="64" s="31" customFormat="true" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
+      <c r="AMJ63" s="29"/>
+    </row>
+    <row r="64" s="33" customFormat="true" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
-      <c r="I64" s="29" t="s">
+      <c r="I64" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="J64" s="30" t="s">
+      <c r="J64" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="AMJ64" s="27"/>
+      <c r="AMJ64" s="29"/>
     </row>
     <row r="65" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
-      <c r="I65" s="32" t="s">
+      <c r="I65" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="J65" s="33" t="s">
+      <c r="J65" s="35" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="66" s="36" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" s="38" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3071,10 +3102,10 @@
       <c r="F66" s="2"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
-      <c r="I66" s="34" t="s">
+      <c r="I66" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="J66" s="35" t="s">
+      <c r="J66" s="37" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3084,17 +3115,17 @@
       <c r="I67" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="J67" s="37" t="s">
+      <c r="J67" s="39" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="38" t="s">
+      <c r="A68" s="40" t="s">
         <v>165</v>
       </c>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
-      <c r="J68" s="39"/>
+      <c r="J68" s="41"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G69" s="5"/>
@@ -3225,7 +3256,7 @@
       <c r="I74" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J74" s="40" t="s">
+      <c r="J74" s="42" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3252,7 +3283,7 @@
       <c r="I75" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J75" s="40" t="s">
+      <c r="J75" s="42" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3279,7 +3310,7 @@
       <c r="I76" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J76" s="40" t="s">
+      <c r="J76" s="42" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3306,7 +3337,7 @@
       <c r="I77" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J77" s="40" t="s">
+      <c r="J77" s="42" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3333,7 +3364,7 @@
       <c r="I78" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J78" s="40" t="s">
+      <c r="J78" s="42" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3360,7 +3391,7 @@
       <c r="I79" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="J79" s="40" t="s">
+      <c r="J79" s="42" t="s">
         <v>191</v>
       </c>
     </row>

--- a/src/parameters.xlsx
+++ b/src/parameters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="202">
   <si>
     <t xml:space="preserve">Модель/модуль/тип канала</t>
   </si>
@@ -240,46 +240,49 @@
     <t xml:space="preserve">0..3 &amp;</t>
   </si>
   <si>
+    <t xml:space="preserve">0..4 / 0..3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дополнительное усиление: 0..4 для N1, 0..3 для N2+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0..4075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0..4092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0..1023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0..255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0..250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">задержка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тестовый сигнал (только для каналов платы 2-16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">использование канала</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trg</t>
+  </si>
+  <si>
     <t xml:space="preserve">0..4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дополнительное усиление</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0..4075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0..4092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0..1023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0..255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0..250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">задержка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">тестовый сигнал (только для каналов платы 2-16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">использование канала</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trg</t>
   </si>
   <si>
     <t xml:space="preserve">тип срабатывания дискриминатора</t>
@@ -537,10 +540,16 @@
     <t xml:space="preserve">входной импеданс</t>
   </si>
   <si>
+    <t xml:space="preserve">DD</t>
+  </si>
+  <si>
     <t xml:space="preserve">1..127</t>
   </si>
   <si>
     <t xml:space="preserve">FD – задержка CFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FF</t>
   </si>
   <si>
     <t xml:space="preserve">1..31</t>
@@ -600,6 +609,9 @@
   </si>
   <si>
     <t xml:space="preserve">FRR – номер делителя CFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr</t>
   </si>
   <si>
     <t xml:space="preserve">0..2</t>
@@ -784,7 +796,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">мертвое время старта DT</t>
+    <t xml:space="preserve">мертвое время старта DT. В romana: eсли 0, задается 1</t>
   </si>
   <si>
     <t xml:space="preserve">CLK</t>
@@ -1030,6 +1042,9 @@
   </si>
   <si>
     <t xml:space="preserve">число обслуживаемых рабочих плат MAIN-ом USB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">время жизни старта DT. 0 = бесконечность (до следующего старта)</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1054,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1146,12 +1161,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -1203,7 +1212,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1214,6 +1223,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF579D1C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1328,6 +1343,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1345,17 +1364,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1412,7 +1427,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1477,7 +1492,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF950E"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1607,12 +1622,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AMJ81"/>
+  <dimension ref="A2:AMJ82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="8" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2031,10 +2046,10 @@
       <c r="F19" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="1" t="n">
         <v>8</v>
       </c>
@@ -2136,14 +2151,14 @@
         <v>17</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="20" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>25</v>
@@ -2153,330 +2168,330 @@
         <v>12</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>81</v>
+      <c r="E24" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="1" t="n">
         <v>13</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="1" t="n">
         <v>14</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="20" t="s">
-        <v>81</v>
+      <c r="E26" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="1" t="n">
         <v>15</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="1" t="n">
         <v>16</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>81</v>
+      <c r="E28" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="1" t="n">
         <v>17</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="1" t="n">
         <v>18</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="20" t="s">
-        <v>81</v>
+      <c r="E30" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="1" t="n">
         <v>19</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="1" t="n">
         <v>20</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="20" t="s">
-        <v>81</v>
+      <c r="E32" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="1" t="n">
         <v>21</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="1" t="n">
         <v>22</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="1" t="n">
         <v>23</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>16</v>
@@ -2486,25 +2501,25 @@
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="1" t="n">
         <v>24</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>16</v>
@@ -2516,25 +2531,25 @@
         <v>16</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="1" t="n">
         <v>25</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>16</v>
@@ -2546,25 +2561,25 @@
         <v>16</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="1" t="n">
         <v>26</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>16</v>
@@ -2573,26 +2588,26 @@
         <v>16</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>114</v>
+      <c r="E38" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>115</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="1" t="n">
         <v>27</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>16</v>
@@ -2615,12 +2630,12 @@
         <v>28</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>16</v>
@@ -2643,12 +2658,12 @@
         <v>29</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>16</v>
@@ -2657,26 +2672,26 @@
         <v>16</v>
       </c>
       <c r="D41" s="5"/>
-      <c r="E41" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>114</v>
+      <c r="E41" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="1" t="n">
         <v>30</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>16</v>
@@ -2686,25 +2701,25 @@
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="1" t="n">
         <v>31</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>16</v>
@@ -2727,40 +2742,40 @@
         <v>32</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="1" t="n">
         <v>33</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>16</v>
@@ -2785,18 +2800,18 @@
         <v>34</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>16</v>
@@ -2815,42 +2830,42 @@
         <v>35</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="1" t="n">
         <v>36</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>16</v>
@@ -2875,109 +2890,187 @@
         <v>37</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="23" t="s">
-        <v>142</v>
+      <c r="A49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="1" t="n">
         <v>38</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="A50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E50" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="1" t="n">
         <v>39</v>
       </c>
       <c r="J50" s="25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E51" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="1" t="n">
         <v>40</v>
       </c>
       <c r="J51" s="25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="B52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E52" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="1" t="n">
         <v>41</v>
       </c>
       <c r="J52" s="25" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="A53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E53" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="1" t="n">
         <v>42</v>
       </c>
       <c r="J53" s="25" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="A54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E54" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="1" t="n">
         <v>43</v>
       </c>
       <c r="J54" s="25" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3018,7 +3111,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>17</v>
@@ -3042,7 +3135,7 @@
         <v>16</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3059,10 +3152,10 @@
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
       <c r="I63" s="26" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J63" s="27" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AMJ63" s="29"/>
     </row>
@@ -3076,21 +3169,21 @@
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
       <c r="I64" s="31" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J64" s="32" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AMJ64" s="29"/>
     </row>
-    <row r="65" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
       <c r="I65" s="34" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="J65" s="35" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" s="38" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3103,25 +3196,25 @@
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
       <c r="I66" s="36" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J66" s="37" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
       <c r="I67" s="17" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J67" s="39" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="40" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
@@ -3133,32 +3226,32 @@
     </row>
     <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="12" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H70" s="5"/>
       <c r="I70" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>16</v>
@@ -3167,25 +3260,25 @@
         <v>16</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>17</v>
@@ -3205,12 +3298,12 @@
         <v>2</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>25</v>
@@ -3230,12 +3323,12 @@
         <v>3</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>16</v>
@@ -3257,12 +3350,12 @@
         <v>4</v>
       </c>
       <c r="J74" s="42" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>16</v>
@@ -3271,25 +3364,25 @@
         <v>16</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J75" s="42" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>16</v>
@@ -3298,25 +3391,25 @@
         <v>16</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="1" t="n">
         <v>6</v>
       </c>
       <c r="J76" s="42" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>16</v>
@@ -3325,25 +3418,25 @@
         <v>16</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="1" t="n">
         <v>7</v>
       </c>
       <c r="J77" s="42" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>16</v>
@@ -3352,25 +3445,25 @@
         <v>16</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="1" t="n">
         <v>8</v>
       </c>
       <c r="J78" s="42" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>16</v>
@@ -3392,12 +3485,12 @@
         <v>9</v>
       </c>
       <c r="J79" s="42" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>16</v>
@@ -3419,12 +3512,12 @@
         <v>10</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>16</v>
@@ -3439,18 +3532,43 @@
         <v>16</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="1" t="n">
         <v>11</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H82" s="5"/>
+      <c r="I82" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="96">
+  <mergeCells count="98">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="G3:H3"/>
@@ -3547,6 +3665,8 @@
     <mergeCell ref="G79:H79"/>
     <mergeCell ref="G80:H80"/>
     <mergeCell ref="G81:H81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="G82:H82"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/src/parameters.xlsx
+++ b/src/parameters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="216">
   <si>
     <t xml:space="preserve">Модель/модуль/тип канала</t>
   </si>
@@ -1045,6 +1045,113 @@
   </si>
   <si>
     <t xml:space="preserve">время жизни старта DT. 0 = бесконечность (до следующего старта)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Команды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Информация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Индивидуальные параметры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пуск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоп</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итоговый счетчик импульсов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Состояние</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Сброс </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">USB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Сброс (сч</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">буф)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Сброс времени</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тип рабочих плат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тест</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Выдача остат</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">ка</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1054,7 +1161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1211,6 +1318,19 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1266,7 +1386,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1437,6 +1557,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1622,12 +1758,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AMJ82"/>
+  <dimension ref="A2:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="8" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
+      <selection pane="bottomLeft" activeCell="C101" activeCellId="0" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2953,7 +3089,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>146</v>
       </c>
@@ -3542,7 +3678,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>134</v>
       </c>
@@ -3567,8 +3703,344 @@
         <v>201</v>
       </c>
     </row>
+    <row r="84" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="J84" s="40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0"/>
+      <c r="B86" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G86" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="H86" s="43"/>
+      <c r="I86" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" s="45" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0"/>
+      <c r="B87" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G87" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="H87" s="43"/>
+      <c r="I87" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" s="45" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0"/>
+      <c r="B88" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G88" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="H88" s="43"/>
+      <c r="I88" s="44" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" s="45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0"/>
+      <c r="B89" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G89" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="H89" s="43"/>
+      <c r="I89" s="44" t="n">
+        <v>4</v>
+      </c>
+      <c r="J89" s="45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0"/>
+      <c r="B90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="43"/>
+      <c r="I90" s="44" t="n">
+        <v>5</v>
+      </c>
+      <c r="J90" s="45" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0"/>
+      <c r="B91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="43"/>
+      <c r="I91" s="44" t="n">
+        <v>6</v>
+      </c>
+      <c r="J91" s="45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0"/>
+      <c r="B92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G92" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="H92" s="43"/>
+      <c r="I92" s="44" t="n">
+        <v>7</v>
+      </c>
+      <c r="J92" s="45" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0"/>
+      <c r="B93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G93" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="H93" s="43"/>
+      <c r="I93" s="44" t="n">
+        <v>8</v>
+      </c>
+      <c r="J93" s="45" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0"/>
+      <c r="B94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G94" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="H94" s="43"/>
+      <c r="I94" s="44" t="n">
+        <v>9</v>
+      </c>
+      <c r="J94" s="45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0"/>
+      <c r="B95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="H95" s="43"/>
+      <c r="I95" s="44" t="n">
+        <v>10</v>
+      </c>
+      <c r="J95" s="45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0"/>
+      <c r="B96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G96" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="H96" s="43"/>
+      <c r="I96" s="44" t="n">
+        <v>11</v>
+      </c>
+      <c r="J96" s="45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0"/>
+      <c r="B97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="43"/>
+      <c r="I97" s="44" t="n">
+        <v>12</v>
+      </c>
+      <c r="J97" s="45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0"/>
+      <c r="B98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="H98" s="43"/>
+      <c r="I98" s="44" t="n">
+        <v>13</v>
+      </c>
+      <c r="J98" s="46" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="111">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="G3:H3"/>
@@ -3667,6 +4139,19 @@
     <mergeCell ref="G81:H81"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
